--- a/INTLINE/data/223/CNI/Business Confidence Index_historical.xlsx
+++ b/INTLINE/data/223/CNI/Business Confidence Index_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EQ5"/>
+  <dimension ref="A1:ER5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1097,6 +1097,11 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="ER1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1542,6 +1547,9 @@
       <c r="EQ2" t="n">
         <v>55.8</v>
       </c>
+      <c r="ER2" t="n">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1987,6 +1995,9 @@
       <c r="EQ3" t="n">
         <v>57.3</v>
       </c>
+      <c r="ER3" t="n">
+        <v>55.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -2432,6 +2443,9 @@
       <c r="EQ4" t="n">
         <v>56.8</v>
       </c>
+      <c r="ER4" t="n">
+        <v>55.4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -2876,6 +2890,9 @@
       </c>
       <c r="EQ5" t="n">
         <v>56</v>
+      </c>
+      <c r="ER5" t="n">
+        <v>54.8</v>
       </c>
     </row>
   </sheetData>
